--- a/src/WebMarket/WebMarket/App_Data/Voltmeter.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Voltmeter.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Voltmeter" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -176,6 +177,15 @@
   </si>
   <si>
     <t>не більше 1 %</t>
+  </si>
+  <si>
+    <t>07.24.2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01.08.2012</t>
+  </si>
+  <si>
+    <t>Updated prices</t>
   </si>
 </sst>
 </file>
@@ -545,12 +555,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
     <col min="21" max="21" width="16" style="5" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="5"/>
   </cols>
@@ -628,7 +639,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -672,7 +683,7 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -716,7 +727,7 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -766,7 +777,7 @@
         <v>35</v>
       </c>
       <c r="B5">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -816,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B6">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -866,7 +877,7 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -910,7 +921,7 @@
         <v>47</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -954,7 +965,7 @@
         <v>49</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -991,6 +1002,35 @@
       </c>
       <c r="V9" s="5" t="s">
         <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/WebMarket/WebMarket/App_Data/Voltmeter.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Voltmeter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Voltmeter" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>IsAvailable</t>
-  </si>
-  <si>
     <t>Photo</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>Updated prices</t>
+  </si>
+  <si>
+    <t>Availability</t>
   </si>
 </sst>
 </file>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,78 +577,78 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>68</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>5</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
         <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
       </c>
       <c r="S2">
         <v>100</v>
@@ -672,27 +672,27 @@
         <v>400</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>77</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>5</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S3">
         <v>100</v>
@@ -716,27 +716,27 @@
         <v>400</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>120</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -748,16 +748,16 @@
         <v>5</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="S4">
         <v>100</v>
@@ -766,27 +766,27 @@
         <v>400</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>134</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -798,16 +798,16 @@
         <v>5</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="P5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="S5">
         <v>100</v>
@@ -816,27 +816,27 @@
         <v>400</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>199</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -848,16 +848,16 @@
         <v>5</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="P6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="S6">
         <v>100</v>
@@ -866,27 +866,27 @@
         <v>400</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>61</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -898,10 +898,10 @@
         <v>5</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -910,27 +910,27 @@
         <v>99.9</v>
       </c>
       <c r="U7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>68</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -942,10 +942,10 @@
         <v>5</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -954,27 +954,27 @@
         <v>99.9</v>
       </c>
       <c r="U8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>84</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -986,10 +986,10 @@
         <v>5</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -998,10 +998,10 @@
         <v>25.9</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1021,16 +1021,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/WebMarket/WebMarket/App_Data/Voltmeter.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Voltmeter.xlsx
@@ -556,7 +556,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/WebMarket/WebMarket/App_Data/Voltmeter.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Voltmeter.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Producer</t>
   </si>
   <si>
-    <t>IsTopBuyed</t>
-  </si>
-  <si>
-    <t>IsNew</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -186,6 +180,9 @@
   </si>
   <si>
     <t>Availability</t>
+  </si>
+  <si>
+    <t>DisplayClass</t>
   </si>
 </sst>
 </file>
@@ -553,20 +550,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="21" max="21" width="16" style="5" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="5"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="20" max="20" width="16" style="5" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -586,57 +584,54 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>19</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
       </c>
       <c r="B2">
         <v>68</v>
@@ -645,42 +640,42 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="Q2" t="s">
         <v>23</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2">
+        <v>100</v>
+      </c>
+      <c r="S2">
+        <v>400</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2">
-        <v>100</v>
-      </c>
-      <c r="T2">
-        <v>400</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
       </c>
       <c r="B3">
         <v>77</v>
@@ -689,42 +684,42 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>400</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3">
-        <v>100</v>
-      </c>
-      <c r="T3">
-        <v>400</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
       </c>
       <c r="B4">
         <v>120</v>
@@ -733,48 +728,48 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4" s="2">
-        <v>5</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4">
+        <v>400</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>32</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4">
-        <v>100</v>
-      </c>
-      <c r="T4">
-        <v>400</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
       </c>
       <c r="B5">
         <v>134</v>
@@ -783,48 +778,48 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="R5">
+        <v>100</v>
+      </c>
+      <c r="S5">
+        <v>400</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>36</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5">
-        <v>100</v>
-      </c>
-      <c r="T5">
-        <v>400</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>38</v>
       </c>
       <c r="B6">
         <v>199</v>
@@ -833,48 +828,48 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6">
+        <v>100</v>
+      </c>
+      <c r="S6">
+        <v>400</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6">
-        <v>100</v>
-      </c>
-      <c r="T6">
-        <v>400</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
       </c>
       <c r="B7">
         <v>61</v>
@@ -883,42 +878,42 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>99.9</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" s="4" t="s">
+      <c r="U7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>99.9</v>
-      </c>
-      <c r="U7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>44</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>46</v>
       </c>
       <c r="B8">
         <v>68</v>
@@ -927,42 +922,42 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>12</v>
-      </c>
-      <c r="K8">
         <v>5</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="N8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>99.9</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>99.9</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>84</v>
@@ -971,37 +966,37 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>12</v>
-      </c>
-      <c r="K9">
         <v>5</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="N9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>25.9</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>25.9</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1021,16 +1016,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
